--- a/biology/Zoologie/Dwardius/Dwardius.xlsx
+++ b/biology/Zoologie/Dwardius/Dwardius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dwardius est un genre fossile de requins lamniformes de la famille des Cardabiodontidae, qui vivait à la charnière du Crétacé inférieur et du Crétacé supérieur.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dwardius a été décrit par Mikael Siversson (d) en 1999[1] comme un nouveau genre pour l'espèce Cretolamna woodwardi, qui avait été décrite par Jacques Hermann en 1977[2]. Une autre espèce, D. siversoni, a été décrite dans l'Albien moyen du nord-est de la France par V.I. Jelezko en 2000. Son épithète spécifique honore l'auteur du genre[3]. Une troisième espèce, D. sudindicus, a été décrite en 2011 dans la formation de Karai, en Inde, datant du Crétacé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dwardius a été décrit par Mikael Siversson (d) en 1999 comme un nouveau genre pour l'espèce Cretolamna woodwardi, qui avait été décrite par Jacques Hermann en 1977. Une autre espèce, D. siversoni, a été décrite dans l'Albien moyen du nord-est de la France par V.I. Jelezko en 2000. Son épithète spécifique honore l'auteur du genre. Une troisième espèce, D. sudindicus, a été décrite en 2011 dans la formation de Karai, en Inde, datant du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dwardius vivait à la fin du Crétacé inférieur et au début du Crétacé supérieur en Angleterre, France, Inde et Australie[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dwardius vivait à la fin du Crétacé inférieur et au début du Crétacé supérieur en Angleterre, France, Inde et Australie,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D. woodwardi (Hermann, 1977) (espèce type)
 D. siversoni Zhelezko, 2000
